--- a/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,65; -1,24</t>
+          <t>-27,72; -3,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 9,42</t>
+          <t>-15,09; 8,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 25,05</t>
+          <t>-0,2; 23,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 13,85</t>
+          <t>-9,05; 14,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,3; -3,04</t>
+          <t>-52,74; -9,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 50,12</t>
+          <t>-50,57; 44,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 132,25</t>
+          <t>-1,36; 116,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 51,73</t>
+          <t>-21,35; 58,6</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,66</t>
+          <t>-6,52; 4,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 10,47</t>
+          <t>0,44; 10,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 16,87</t>
+          <t>4,39; 15,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 5,57</t>
+          <t>-6,29; 5,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 11,37</t>
+          <t>-13,98; 11,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 51,39</t>
+          <t>1,89; 53,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 49,86</t>
+          <t>11,05; 47,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 16,78</t>
+          <t>-14,81; 15,36</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 9,91</t>
+          <t>0,71; 9,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 16,52</t>
+          <t>8,18; 16,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 12,23</t>
+          <t>3,6; 12,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 11,71</t>
+          <t>1,71; 11,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 24,79</t>
+          <t>1,58; 24,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,42; 76,44</t>
+          <t>32,42; 76,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 36,93</t>
+          <t>9,46; 37,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 42,96</t>
+          <t>5,09; 43,24</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 11,75</t>
+          <t>0,66; 12,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 12,26</t>
+          <t>2,7; 12,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 11,75</t>
+          <t>1,57; 11,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 13,3</t>
+          <t>-10,0; 13,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 39,5</t>
+          <t>1,83; 40,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,87; 65,58</t>
+          <t>11,28; 67,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 39,22</t>
+          <t>3,48; 38,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 40,34</t>
+          <t>-25,3; 40,59</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,12</t>
+          <t>5,22; 14,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,79</t>
+          <t>4,75; 12,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 15,24</t>
+          <t>6,4; 14,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 15,51</t>
+          <t>6,81; 14,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,18; 34,41</t>
+          <t>11,44; 34,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,0; 66,53</t>
+          <t>20,21; 64,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,9; 50,82</t>
+          <t>18,77; 50,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,45; 57,83</t>
+          <t>21,07; 53,97</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,41</t>
+          <t>2,68; 7,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,57</t>
+          <t>6,36; 10,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,29</t>
+          <t>6,27; 11,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,63</t>
+          <t>2,16; 8,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,66</t>
+          <t>6,44; 19,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,67; 49,09</t>
+          <t>26,94; 49,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,58; 34,81</t>
+          <t>17,74; 34,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,84; 31,06</t>
+          <t>7,03; 28,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,72; -3,69</t>
+          <t>-27,3; -2,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 8,59</t>
+          <t>-14,07; 7,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 23,87</t>
+          <t>0,77; 25,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,74; -9,54</t>
+          <t>-51,82; -7,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 44,43</t>
+          <t>-45,77; 44,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 116,66</t>
+          <t>3,06; 140,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 4,76</t>
+          <t>-6,52; 5,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 10,62</t>
+          <t>0,39; 10,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 15,91</t>
+          <t>4,55; 16,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 11,01</t>
+          <t>-13,84; 12,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 53,04</t>
+          <t>0,88; 53,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 47,29</t>
+          <t>11,46; 47,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,91</t>
+          <t>0,34; 9,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 16,39</t>
+          <t>7,77; 16,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,31</t>
+          <t>3,34; 12,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 24,65</t>
+          <t>0,55; 25,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,42; 76,44</t>
+          <t>29,82; 74,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 37,54</t>
+          <t>9,07; 37,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 12,07</t>
+          <t>0,65; 11,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 12,34</t>
+          <t>2,94; 12,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 11,62</t>
+          <t>1,52; 11,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 40,06</t>
+          <t>1,81; 37,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 67,39</t>
+          <t>12,9; 66,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 38,31</t>
+          <t>4,18; 38,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 14,08</t>
+          <t>5,55; 14,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,65</t>
+          <t>4,83; 12,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 14,96</t>
+          <t>6,5; 15,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,44; 34,37</t>
+          <t>12,02; 34,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,21; 64,57</t>
+          <t>20,77; 63,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,77; 50,97</t>
+          <t>19,8; 51,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,64</t>
+          <t>2,59; 7,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,6</t>
+          <t>6,14; 10,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,34</t>
+          <t>6,31; 11,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 19,46</t>
+          <t>6,12; 18,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,94; 49,66</t>
+          <t>25,91; 49,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 34,72</t>
+          <t>18,19; 34,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,3; -2,83</t>
+          <t>-27,65; -1,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 7,56</t>
+          <t>-14,36; 9,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 25,33</t>
+          <t>0,16; 25,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 14,25</t>
+          <t>-9,39; 13,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,82; -7,6</t>
+          <t>-51,3; -3,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 44,64</t>
+          <t>-47,88; 50,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 140,04</t>
+          <t>1,43; 132,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 58,6</t>
+          <t>-22,94; 51,73</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 5,03</t>
+          <t>-6,76; 4,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 10,97</t>
+          <t>0,22; 10,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 16,08</t>
+          <t>4,92; 16,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 5,36</t>
+          <t>-5,59; 5,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 12,29</t>
+          <t>-14,45; 11,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 53,42</t>
+          <t>0,84; 51,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 47,37</t>
+          <t>11,88; 49,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 15,36</t>
+          <t>-13,32; 16,78</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,83</t>
+          <t>0,12; 9,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 16,26</t>
+          <t>8,11; 16,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 12,25</t>
+          <t>3,22; 12,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 11,95</t>
+          <t>1,68; 11,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 25,36</t>
+          <t>0,3; 24,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,82; 74,84</t>
+          <t>30,42; 76,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 37,56</t>
+          <t>8,62; 36,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 43,24</t>
+          <t>5,05; 42,96</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 11,28</t>
+          <t>1,64; 11,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 12,06</t>
+          <t>2,78; 12,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 11,77</t>
+          <t>1,82; 11,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 13,52</t>
+          <t>-9,97; 13,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 37,6</t>
+          <t>4,59; 39,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,9; 66,33</t>
+          <t>11,87; 65,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 38,45</t>
+          <t>5,35; 39,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 40,59</t>
+          <t>-24,55; 40,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 14,63</t>
+          <t>5,18; 14,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,55</t>
+          <t>4,97; 12,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,5; 15,05</t>
+          <t>6,38; 15,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,63</t>
+          <t>6,59; 15,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,02; 34,88</t>
+          <t>11,18; 34,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,77; 63,51</t>
+          <t>21,0; 66,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,8; 51,33</t>
+          <t>18,9; 50,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,07; 53,97</t>
+          <t>21,45; 57,83</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,42</t>
+          <t>2,44; 7,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,59</t>
+          <t>6,25; 10,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,36</t>
+          <t>6,48; 11,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,91</t>
+          <t>2,59; 9,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,12; 18,65</t>
+          <t>5,71; 18,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,91; 49,21</t>
+          <t>26,67; 49,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,19; 34,92</t>
+          <t>18,58; 34,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,03; 28,58</t>
+          <t>7,84; 31,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,82</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,54</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-33,79%</t>
+          <t>-7,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,26%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>-0,53%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,65; -1,24</t>
+          <t>-9,25; 1,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 9,42</t>
+          <t>-0,59; 8,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 25,05</t>
+          <t>5,64; 15,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 13,85</t>
+          <t>-5,28; 5,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,3; -3,04</t>
+          <t>-18,92; 4,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 50,12</t>
+          <t>-2,2; 42,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 132,25</t>
+          <t>13,42; 49,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 51,73</t>
+          <t>-12,63; 15,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>12,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>46,05%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,66</t>
+          <t>0,12; 9,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 10,47</t>
+          <t>8,11; 16,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 16,87</t>
+          <t>3,22; 12,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 5,57</t>
+          <t>3,96; 25,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 11,37</t>
+          <t>0,3; 24,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 51,39</t>
+          <t>30,42; 76,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 49,86</t>
+          <t>8,62; 36,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 16,78</t>
+          <t>11,44; 171,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 9,91</t>
+          <t>1,64; 11,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 16,52</t>
+          <t>2,78; 12,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 12,23</t>
+          <t>1,82; 11,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 11,71</t>
+          <t>-17,75; 15,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 24,79</t>
+          <t>4,59; 39,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,42; 76,44</t>
+          <t>11,87; 65,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 36,93</t>
+          <t>5,35; 39,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 42,96</t>
+          <t>-47,76; 47,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>39,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>29,89%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 11,75</t>
+          <t>5,18; 14,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 12,26</t>
+          <t>4,97; 12,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 11,75</t>
+          <t>6,38; 15,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 13,3</t>
+          <t>0,76; 13,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 39,5</t>
+          <t>11,18; 34,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,87; 65,58</t>
+          <t>21,0; 66,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 39,22</t>
+          <t>18,9; 50,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 40,34</t>
+          <t>2,95; 50,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>22,88%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,12</t>
+          <t>2,44; 7,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,79</t>
+          <t>6,25; 10,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 15,24</t>
+          <t>6,48; 11,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 15,51</t>
+          <t>1,25; 13,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,18; 34,41</t>
+          <t>5,71; 18,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,0; 66,53</t>
+          <t>26,67; 49,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,9; 50,82</t>
+          <t>18,58; 34,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,45; 57,83</t>
+          <t>4,6; 55,02</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,47</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,9</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>37,7%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>26,33%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 7,41</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 10,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 11,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 9,63</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,71; 18,66</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>26,67; 49,09</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>18,58; 34,81</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 31,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 1,68</t>
+          <t>-8,49; 2,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 8,87</t>
+          <t>-0,91; 8,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 15,98</t>
+          <t>5,69; 16,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 5,21</t>
+          <t>-5,46; 5,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 4,29</t>
+          <t>-17,79; 5,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 42,53</t>
+          <t>-3,63; 42,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,42; 49,12</t>
+          <t>14,7; 48,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 15,07</t>
+          <t>-13,15; 14,49</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 9,91</t>
+          <t>0,34; 9,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 16,52</t>
+          <t>8,09; 16,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 12,23</t>
+          <t>3,53; 12,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 25,32</t>
+          <t>3,69; 24,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 24,79</t>
+          <t>0,78; 23,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,42; 76,44</t>
+          <t>30,82; 75,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 36,93</t>
+          <t>9,59; 38,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 171,98</t>
+          <t>10,15; 165,16</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 11,75</t>
+          <t>0,68; 11,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 12,26</t>
+          <t>2,51; 11,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 11,75</t>
+          <t>1,14; 11,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 15,9</t>
+          <t>-16,71; 15,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 39,5</t>
+          <t>1,98; 37,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 65,58</t>
+          <t>11,13; 65,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 39,22</t>
+          <t>2,8; 36,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 47,97</t>
+          <t>-45,51; 48,35</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,12</t>
+          <t>5,51; 14,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,79</t>
+          <t>4,62; 12,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 15,24</t>
+          <t>6,57; 15,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 13,84</t>
+          <t>0,78; 13,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 34,41</t>
+          <t>12,19; 34,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,0; 66,53</t>
+          <t>19,5; 64,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 50,82</t>
+          <t>18,81; 50,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 50,74</t>
+          <t>3,26; 49,42</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,41</t>
+          <t>2,58; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,57</t>
+          <t>6,31; 10,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,29</t>
+          <t>6,47; 11,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 13,89</t>
+          <t>0,97; 14,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,66</t>
+          <t>6,02; 18,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,67; 49,09</t>
+          <t>27,35; 49,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,58; 34,81</t>
+          <t>18,7; 34,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 55,02</t>
+          <t>4,4; 54,42</t>
         </is>
       </c>
     </row>
